--- a/chapter13/Chapter13-HW-3.xlsx
+++ b/chapter13/Chapter13-HW-3.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="2-hiddenLayers" sheetId="1" r:id="rId1"/>
+    <sheet name="NN" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="set1stat_analysis_1_5_2007" localSheetId="0">'2-hiddenLayers'!$E$11:$E$183</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'2-hiddenLayers'!$B$2:$H$5</definedName>
+    <definedName name="set1stat_analysis_1_5_2007" localSheetId="0">NN!$E$11:$E$183</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">NN!$B$2:$H$5</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -25,7 +25,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'2-hiddenLayers'!$T$1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">NN!$T$1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -276,7 +276,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> the training dataset below, please use Neuron Network procedure with 4 neurons to construst a NN model and apply the model to the scoring dataset (below the training dataset).</a:t>
+            <a:t> the training dataset below, please use Neural Network (NN) procedure with 4 neurons to construst a NN model and apply the model to the scoring dataset (below the training dataset).</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -285,7 +285,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>Note, using one or two hidden layers is acceptable. But it would be interesting to test the result of using 3 hidden layers</a:t>
+            <a:t>Note, using one or two hidden layers only.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -590,7 +590,7 @@
   <dimension ref="A1:H191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
